--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/73_Tokat_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/73_Tokat_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD5B0CC-14CB-4CAA-9C1C-2DED55BCCEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D90FEF6-DA41-4E05-AB0E-432BF3B85C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" xr2:uid="{8C9D69C9-22F2-488D-95A4-C600E3608408}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" xr2:uid="{3819F6E2-09A1-4E52-8D4C-6958416A4D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{ACFF2DF5-B396-42FE-B1DA-3BB64060F0AE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{92A3FBDF-6556-486E-9996-E0A02B3EB13B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0F99AF62-82D8-480B-9A7E-B2C98793BA0F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9B5A5CFE-C48D-457C-B7F1-A3E540E37D36}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E23BA6A4-1DD9-4CA2-B090-768B67BECBD7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{51E83146-20DD-4A5A-B119-7C59489E9D7B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4B9AE6B2-383A-4095-B5A4-877D6C3B6D68}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7B417C91-A7BA-4A33-A5BB-13546CB013B9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E1F7B91B-6D5C-4C38-AC9B-9CA5C2751D40}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F921051C-64C6-4B97-ADD5-D3C90023DD4F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0D87E547-6501-4B0B-AD4E-3D242975597A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B486508B-C832-481C-95BD-B12457F3074A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{54F88515-9E41-4C96-9354-30ED05677FC9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2FBD2EA0-1D44-44B6-8DD1-AF433AAB0713}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A565AE5C-AB4E-4556-9F80-6DF7B53B9FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99586C3-B824-4723-9F0A-6E7EF646D38A}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2547,18 +2547,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AD15854-9648-4B34-ADA0-2987E999D725}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75F51A4D-6B66-4C8B-8006-82CAF230B717}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E75E4EC-43A9-4A02-9C0A-F665509FA11D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{368C3CAE-9CC2-49F7-ABB8-63E5A99AFFDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAE0CB0B-D402-4C75-96BF-940FBA04351A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B764910-A78A-47EC-8FB9-41BAA8E7F6E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0A7002E-05D1-41D9-9D17-694906750FB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8D169A9-B824-4E3B-82A0-B70899FB462D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B59667A-4BAA-491C-B721-28F1270A67BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7B40FDB-AD5E-4139-9F73-3D80DE7EB90F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CB8B0A8-51D1-4A61-9D05-A242FB650224}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AC8635B-412B-4BE0-AB9C-CA558B53824A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5F0F1E3-9D45-49EE-8209-2C7DA9BFAB92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74593C7F-E950-4EA9-8F73-A481AC12CD32}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DEBFCD79-98F8-4EB4-A9CE-704C1F501318}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68E92DFB-1972-4313-989A-CF3B92156C9D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D850258D-FF13-42A4-B10D-E3748A443FD9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{668552D1-1759-49FD-B22F-1E471E0AB297}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF45236F-6919-4FE8-AE51-315CA5E26DFB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BF8CB6C-1BE9-4921-9209-7239C6A2D64B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8BD7F57-CD42-4719-9446-B898B98CFAD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA867A58-D5A5-42DA-818B-10D66B7EFD74}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65A68507-8E63-4CC0-9433-0E3A587D8F28}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FADA3D10-2FA6-4560-8264-1863DE38A68E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2571,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B213A0-20D1-4A0C-A77B-ED4EBA153EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54F2B43-8089-4192-8E0A-5C613B4DAA9F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3777,18 +3777,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{287318B0-E3F0-4646-ABE8-A048E8D7E30F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC7375CB-2B9A-4765-88E3-0AD06BDEADDC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AAE44408-EB35-497D-9724-1279242A1B9C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{770AE71E-C855-4C47-ADB4-EB3ACBCBF59D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5673CB24-00DA-409C-97DA-0FD4FF6CA589}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82F6BF4B-12BD-450A-B7FF-1C10A381FE00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FFF8E72-D687-42D6-8673-A7F84C8A8362}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9225358-C672-406B-B83B-5DFEBC45D5DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9240C3BE-DCAC-4B25-9693-83FF953FE677}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F518FEC9-0854-4525-82D8-1AE97D4702E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{829282E9-159D-4A5F-B427-00B423AC8C46}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A58BA2C-97D9-4ED8-9B69-42A887AB4121}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A7B7166-FD98-4A0A-8F57-222702B5D2D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9402A405-F10B-40DB-B6FB-B92CFAD3FD8E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E01C1310-E67B-4FC9-A81A-A2D65A5491E6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D2B0EF2A-6713-48B3-8FF0-9F106EF1C6B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97A1C26F-7357-43C6-A017-32C188F61BC3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C561C76-3277-4164-9852-C0047C41DB67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAFAB5E7-B386-4944-BA32-C966426A68EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93A81DF7-9BD8-4975-9FD7-570D8004908D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A34F207A-FD97-4255-B2CB-F4C6367D2846}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80F78106-D26E-46B9-A7A3-1879C9C89362}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F789858-F389-40CC-92E9-23B77322F686}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A715F2F-97C1-40BE-9D40-1085A668C858}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7D300-9A5C-4E49-AECC-308E058C4D4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D4484F-68A7-46F9-B8BA-4248A28644A1}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5007,18 +5007,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BE42D1A-A198-4FE6-8CCD-A27A59E8BC14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14067392-4C40-45A6-99AE-76380B16A6A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A31E0D01-F398-436C-9D09-D6E8A79B5271}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4DCA359-6656-4D7A-AA62-4CF61039EEE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5195653A-A313-49DD-B0F2-81396D71EFB6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBEA4340-C961-462D-BCD2-867DB060F0CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FAF4E4C-AF40-4A33-AE26-5D887E9F50B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8272D4A3-5C6E-43A4-AE23-C7286279F284}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C154379-1628-4188-A609-82D6751F3C2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EABD3BEF-91F9-4C73-A794-0CCF7556CBE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B0FD822-1C36-4A6F-A7C5-97F51AD09EA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96F37BD3-744E-481C-A560-5E5855354CA5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20A6BF3B-72C1-4590-A440-C795DC337780}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAFEE42B-C23D-4BB7-A5FF-565230A3DE36}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54C8A533-720F-4B49-BEFE-ABA5B91B659D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3AAEEDD9-916A-48FB-B5BA-B09241B109A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08E61638-C5B8-4FBC-8933-6149D295CDB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BF1FA3E-F5EB-40B4-966A-DF5229B0E9DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{004184E3-C4A7-427E-BDD3-193CEA93717C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E3EDC3D-80D3-4C00-A9FB-4349D6DDD719}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0CC7F10D-A55D-4039-A2A0-3950535366C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DE5A6BB-154E-4355-87CE-2ACC56A5BD7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FBC0F94-FCA9-4E19-861C-A461741644DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D581B242-3C05-47E4-BF97-1B6A50C79CE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5031,7 +5031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59187D4C-A03B-421E-B79A-1C9CE4978814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257C59C9-03BE-494A-9831-39F5B5E6FC3B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6229,18 +6229,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A49E840-EAD4-4036-AE8F-710656F92D8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D355576-F08D-4426-9480-A9FF945F001C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AAFBE5F0-5FD1-4837-B90E-930315704F14}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{56E7398F-A30A-4D22-B5BD-BBD47A3FFA0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{415AB1E9-CBCC-4043-8475-32791F3A22AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C982FAC7-D06B-4A8C-9269-AE37826DA5F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7716C7EE-C24C-4719-9176-02592DD5C489}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35600536-5996-46A5-BE85-A4DFC01B8FF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CC3988F-010A-4350-919C-1E51B0DEC03B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98CF296D-EBEB-4B83-99E2-CFF5A0B6EF0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EEB9528-33CC-46CF-AA6E-E45489B85F51}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE62F56C-C00F-46FB-9960-E3021DCACAC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42B2F1BC-2C6C-4EAC-8FE6-F27F78B6C8BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C512308B-A769-41C5-B399-4FDA4BF2ED78}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A63C27A9-956B-4344-ACA2-3EC399416130}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85A69813-C091-41D0-AE5A-71B3F609C46F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AA45CE4-2724-4B8F-A1B2-3A58398003EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A95563C-C64F-4FD5-985F-D761CBE5B22A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28DF4342-9903-4AE2-A488-A3ECED86B032}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF1913E5-EC4A-466C-B03B-814F686713E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DBA12C7-DDD2-404D-87AA-DFB748FED88B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F86C3FE-F08C-431E-B5A0-BC584FD4AC2B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A89A47C8-6B5E-427F-9E28-628B5536D420}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4A3CA3C-0D27-48BE-BB6F-6A60AF574C82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6253,7 +6253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE317AD-95DA-44B9-9A26-0F3DBC0B48F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CF6704-1ACB-4EBE-B032-459D261A15B8}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7471,18 +7471,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62933275-AF64-4F8D-9ADA-572A9441387F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8F7DFF9-6D05-4148-8249-C5838A95749F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7A83C8BC-14C4-4DAA-8043-1638295DD2F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{971485FD-2DB1-4A46-8D97-40DCC5EFF48C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5A6B85A-7704-4337-9391-967DBC13362C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BC10014-BF89-4AA5-91E7-3E48DCAD1C71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91ACFA3C-B585-468F-AAB7-C62E03D04A74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3001616-939E-433B-B998-9CDF1362B4DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F733C237-E189-432B-9220-07F7BB41BD09}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C42AD1A-577B-4CA7-9D2D-0A5D169833C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E73883FB-AE18-479D-B550-986FA04AF0BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E254FDC-564B-4D0C-BF66-F6A1D4A2D451}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CB317F4-6A8F-44B4-8023-6DC3EA86DE31}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6F85460-F757-4344-B513-486E588D6EDE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2D8118A-253D-4708-80DC-938743CE4A96}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A2127C4-21FE-491C-B455-E8C8BEFD9600}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65AF9618-7CC4-4C0D-A7EA-10A7F5266716}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A489FC86-603E-4A1F-A3B7-DF792EA0AC48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EACC656-BB72-467F-A1FA-0F1996C75DA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9621B9E6-B5C4-4F13-9C3A-FE151CE671A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C08EB785-C074-44C6-9632-97F90548A4B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EC20E2E-1AC7-4B57-A135-610C34E13E58}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAE59DD4-EBAB-47F1-A0A6-1164344E3612}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2654D71C-1E61-4076-A9EC-4C9C74CAB1A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7495,7 +7495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324CE6C4-03E0-43E4-8685-79A73408B0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB95247-9454-4823-8F3C-AB3E5FBEE254}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8713,18 +8713,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB50000C-AAE9-4D40-BC36-79E7D3E932E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC2FA442-65B7-428A-B071-CA4B835F383A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2030D777-A196-4B7A-A2C5-99941767DA86}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E8A72FF-5B73-4112-B577-CF7DD00A99BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0D7411F-4C2B-4BD3-8C21-41EF30B5490B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26FC73CB-655C-412A-8195-A627784BF81A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{835A9738-2918-4286-9E0A-632EAEFBFD52}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2CA6036-DCE0-40F0-B728-39E8A6734EA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41A792CD-6569-48D4-9C9E-4E3F61A960B6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F7D853E-3D36-4312-9B06-0C04EF55B98C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA2EA329-02F6-48EA-82DF-FA92F8771788}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{650F9D41-20D5-4006-918B-2E2D4C187341}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4F5B629-03BC-4EDD-A02F-FAD38F70ECFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52CD22CD-211E-4073-9E71-E2B6CD314DA3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E9C779A-B84F-429E-B818-9B01EAF550B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD203C01-2044-489F-8ADC-576786A3F58F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AE78F9E-D14C-4E15-BE9D-1A9C5E14FB5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7E3DCA0-E12D-4B8A-B7E4-D1DF0FE32872}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E454406C-7867-4528-9BFD-A5169B35E837}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5180137B-B5D4-49A7-BCC1-2E897494F067}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C03D0A6D-9555-4CFF-BF02-44E543A6BB5B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED9848F0-EDA8-493E-BC19-D2E5DDFEE201}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7653B17F-8EB5-4D90-80C9-65D6DBA0B36F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{326EAB7B-C6DA-4DB2-8C02-9BF654DBA64B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8737,7 +8737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19768C06-DEBA-4F35-93C2-83C9A915D33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BBF4AB-DA64-4D98-90A0-FD2ADBC86D42}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9955,18 +9955,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B949AE11-C39A-44B3-899A-049135DF56E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{358FEE58-2454-4CE0-B561-E2B97D9F8FED}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96E2C153-069A-4376-BB2A-A77783C5560B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{538866D1-ADB2-4B03-8C21-9B934E571CD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B6C2931-251F-4A01-8F67-36BB62F05A18}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BFB8BEE-8BE8-4468-85B4-EDB61E939D49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D3E1E8D-EB7A-4F40-B7D6-EBC29DC67F26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{099BCCA0-ABE9-4093-B035-02DB6F66A9AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BD89E3E-F468-4BB0-9B97-E16E281CEEE3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B803870-1DD6-4B9D-9A9A-993404E68BA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65FAD7B9-D98C-4B21-A166-35051014826A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94C49608-841D-4965-95E4-EBFA6FF8D564}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B52E0CDD-0B1C-445C-A186-05D0D37137E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60E315F5-1B16-4DB3-ACA4-FEF9FAE2F9D8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B827F53C-6FDB-4F16-AD74-C4029B0E919B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C2CC0BD-D25A-4F72-A23C-2E31F786BCC2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9757E918-FDE2-46C4-A262-B96D1D18E00A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF1A500C-1498-465F-9857-2251492440E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C25CBA08-E2D2-4CCA-83BC-A6643B8F0692}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{634B55E6-DC03-49A7-9564-CF44EAC15C32}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{683D83C9-732E-489B-9436-1EA523453EF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3482D90-E29A-4735-8E93-4DD95C10B2AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1774B31-3561-4C27-B42E-C521EE172751}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9E2C4D1-0A36-4FCF-A3DF-6FCF8EF18F73}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9979,7 +9979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367E637E-51D3-487D-A5AC-FFEDB7027C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E650BA6-24E4-4CF3-ABE4-A06BA708E521}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11197,18 +11197,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C441AC7-7DBC-4EBD-96A1-36E377A9C566}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31D1BC54-E881-4886-AAD0-DDF39CD39DC2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D08EAF6-52C0-4FDD-94D9-9096736599D2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F212F60-4C04-4B8B-849D-55CD52599DE0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DFDD1B8-392B-4658-B864-F4D7E329E442}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{866099C9-E427-4A32-A935-67BA89BC3F45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D969845-5120-4755-82CA-961D6E186633}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BDD1D4C0-9CE7-48A1-9519-6EAB9D513DBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C540CC04-C7A5-4787-8973-68E1942A8630}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BA5C229-EC4D-42D2-98C2-835A5731012E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AF372CE-8F85-4D13-B273-ADF124745CA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B655394-E276-42EF-A840-6ED25A15AAD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B387C39F-58EE-4CD3-AFA0-87657D9B3D98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2608E56-5633-4A0E-9AF4-14228AF6237C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC2564B7-49D3-4FC5-AAA7-3F7074626F06}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0BA8BF05-50D9-43CD-8B58-6A64DA4AECD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C1F30F7-4CAB-47AC-8D1A-16F8C60CC8E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A1A2C61-5687-4B3E-AD73-4B24EE64B8D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8A9A5ED-3AA6-4511-89BB-F30EA32F0523}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E55D3121-7B2B-4346-BBC4-4CBD630BAB5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCD25F54-6C31-4EFB-9020-49B85E7CD74B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A00582B-BB6E-4BBC-A545-AAE35790E1F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D98C2CE4-625D-4717-A9E7-9DAEA08F7D00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FE002F8-10D6-49CE-BC58-5311751ACA77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11221,7 +11221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D9B0B2-FDD2-416F-98EA-084E8212B429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D781F2D-13DE-4C02-87AE-3EC7CB3BDC94}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12431,18 +12431,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A06C8758-8DB9-4044-8EF6-8A6C3F3762BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{474CF4F3-9028-4B87-A128-FBDD740E5560}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86B6D209-1767-4343-AB09-09BC0EAD4A35}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D528AF53-3BA0-4666-84F8-9DB5A182E3F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D66347E-0466-48EB-B0FD-A9F0BC6FFA26}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B928AE7B-4533-42E5-9D32-757044CF4B10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A0C9F21-20EB-4206-9CE3-23842846A2AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48DED17A-46A5-4F50-BDC9-AEF37B45F2C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71B6082B-E325-4D00-8253-1EB7AA8E2ED3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B878556-1E18-4ACA-B766-CD1C9118F9EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D80D0B7D-8B98-4373-965A-3D69A281F158}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9392855-BE3F-4ECD-9824-D65B7B90F5CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AA9BFC9-BF3B-4F65-9B8E-DAF064A3709D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F77ABFCC-3BCB-46FE-9276-86B63C3472A7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11575CEA-16AC-4250-A81A-F196F07FFB8A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{044A9697-942F-4085-B529-6357253F05FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C01CBE34-9147-4057-B08B-071CBDE59717}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDEDE837-8AF1-4FF3-B5CB-C9DCF8E49D67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F54F19B0-C93C-4A00-A3D7-6D92079851E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA9F8D94-C5D5-49EC-A24D-66069D5FB509}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C2FE617-21EE-4DD1-953A-EAAD4DFA9B16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{403A8759-77A6-40DE-AE25-930065A62C35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E01B160-C703-4F9B-AA62-1BC86B8A0AE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D867D77-189A-427A-9B8E-EDDAC8B69B20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12455,7 +12455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F24522-19B2-4844-9FCB-DDE79B3CF5A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E340A6B6-914C-4391-AC36-CC43303F5926}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13665,18 +13665,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F9552B2-CF98-4736-8BA7-A6D764A4CE60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{929137F9-393B-4D7D-B152-BB31ECF3FE98}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB6D9E8B-90A4-4A9A-AD8A-DF0E111BFCAC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9038C351-51D4-42F8-AAB7-B1D7EFD6F441}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48202624-998B-415D-83F0-9E946CFA2926}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8254107F-0B05-4515-B7AF-4B4D76A15D44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55E272F5-7BB4-48BE-959C-805E81FDD9C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7E98851-AEE1-42EA-9914-833AB266E154}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6F30D62-E953-4702-9068-7F9ED34601DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EC1F39D-106B-42CE-8828-30B0782532B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0999B62F-DF91-494F-A288-2BF78A8DFC65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FB7A2A1-5A06-4668-9FA6-78D7A286CA41}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9383A4E8-8093-4A43-9067-BED21CA6BF16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF5D08F2-B862-4B76-BF58-11B55C4E6244}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64839911-6B89-4C95-A666-EF4AB51085D3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2454DF54-7886-462F-8B8C-289EAAD0E1A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9726F5D6-ED56-4399-872F-0AC27F0D1EDB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{596DD644-EE30-4902-99AC-2DCB15F57F65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF33F610-9E64-4E92-A720-A7941716DB92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5EBBCE9-A68C-4E30-9984-EE9B5AB7ECA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CAA26703-1E19-4657-979B-56227E01ED41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68C13B99-3F9E-4C5E-B62E-4D45771E119D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D8BC7DC-B563-491C-B653-DAF812F94970}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C893BC1-063F-439A-BD95-236891605F7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13689,7 +13689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2196842-D09E-4E39-B1AA-C64C2C772F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8144DE-CD4E-4FCB-BC44-84B7F8C8E0A7}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14899,18 +14899,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{140DD6E1-18F1-47B8-8AE4-D9B04C76DAF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AD12372-C611-4AF5-8CF5-41DE80FF5D15}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C3587A2-768C-4A16-82E9-D819ED3D7C91}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{96E7007C-C627-428E-A90B-D20EDFCAE659}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5711B40-3AEA-4CD2-9C05-EAF7841741F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F73C5197-AD81-4DF8-9DCD-91ECA7B020D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{394E99CB-1066-4F33-8E85-3D19A8A172CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A34707B-FA82-4FED-BF47-3AE320076AB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6924BA5-1B65-4D4D-B056-73EBAF522F52}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDAA4482-7A38-4460-95DA-DC1FF5288D7B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5316EAE-978E-4708-BF5B-07E9374B3E42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A10C2F21-3EA3-4298-87C3-00AC67F814E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C380F62-622E-411E-8572-B042BD8A24AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9D180F3-560D-4E78-919D-EB050ADB42DA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E918D2C8-4049-4A86-AE88-30B831FCF750}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4E829BA-A24E-4144-8C58-2712B82BB1FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FE2620E-58EA-4D72-830C-D9E8748F0745}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21675B06-1C46-4A07-9293-7DC7764442E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB9CF6DE-4C98-4361-9FF0-C6A6BB5F7314}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{662C6892-E01C-4989-BECC-AD1805652D2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4C5C857-136A-4374-986E-840089615C1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0F72E8B-98D2-4245-8C44-FC14690A064A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDA367A6-FC4A-4D7E-AF5F-CC1D3FAED39E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BACDC35E-6974-4669-B8B9-D1D8B8045053}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14923,7 +14923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A448E3B-7B8B-40D3-A79B-21688394DCD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122134F9-942E-45D7-B856-7E461471621E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16129,18 +16129,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40012B15-2FA8-4D6F-9F26-E604E50B0EB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92352F39-8891-4305-84BC-678C60AF7725}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70061A58-623C-4157-AD63-EB61AC68E315}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3D9C056F-4092-4C59-AA7E-446444B46CFA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20F23DB4-935F-41A7-BD7B-CB6CE1EE36D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5ADCDAF-0D28-45CF-981B-36DF940A9C31}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D502B6EE-2471-42C0-8575-CB59E7889EE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FA08DAE-F3C8-415A-B858-4818180CDD33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EEB8BBE8-D4B9-4920-AEB7-114EF68BB697}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDAC8DFB-13F0-4316-8C81-7C39CB16BACB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A62FC20-F1B4-477E-830A-F2A5E1641240}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{293E28C0-23B9-43B6-AE4A-CFA31E91E8B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{498751C9-3196-4F86-A18A-7026C52A8806}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{110CC385-DF26-4E0F-8110-CF315BC50D3F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7F6637A-A400-4968-996E-83E32322FE73}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB4973BB-DD80-409A-BA23-BCD27981FDD9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBF09C11-6E87-43D8-93E9-9980D7B80DC0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{236654F7-BAC4-4BF5-99E6-4D2A70A5B501}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86319CA2-A3EA-484D-A98F-B9CD5884CDAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44ABE263-218D-4AA3-822F-D9988F9BD9FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{709BB173-4AF9-415D-AA99-168CFF3CC33C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6158F8E9-39A2-4B79-8C8F-F7BE2011AE1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FB8C1D7-D5C6-4496-94DD-02CB75E5F840}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E49442AD-28DD-43BB-B48D-EFD8ADB7B75B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
